--- a/biology/Botanique/Jacaranda/Jacaranda.xlsx
+++ b/biology/Botanique/Jacaranda/Jacaranda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacaranda est un genre d'arbres, les jacarandas, de la famille des Bignoniaceae, originaire des Paraguay, Uruguay, sud du Brésil et Argentine. Le genre Jacaranda comprend environ 50 espèces de plantes à fleurs et 6 sous-espèces. L'espèce la plus commune est le flamboyant bleu (Jacaranda mimosifolia). Il semble être l'arbre subtropical le plus planté dans le monde.
 </t>
@@ -511,9 +523,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Jacaranda ont été échantillonnées comme sœurs de toutes les autres Bignoniacées. Les travaux phylogénétiques ont fourni un soutien supplémentaire à la monophylie de la tribu. Malgré ça, la compréhension des relations phylogénétiques parmi les membres des Jacarandeae reste pauvre. Ils se distinguent du reste des Bignoniaceae par leur staminode allongé et glandulaire, la forme de leurs feuilles ainsi que leurs fruits qui sont déhiscents, oblongs à circulaires ou elliptiques[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Jacaranda ont été échantillonnées comme sœurs de toutes les autres Bignoniacées. Les travaux phylogénétiques ont fourni un soutien supplémentaire à la monophylie de la tribu. Malgré ça, la compréhension des relations phylogénétiques parmi les membres des Jacarandeae reste pauvre. Ils se distinguent du reste des Bignoniaceae par leur staminode allongé et glandulaire, la forme de leurs feuilles ainsi que leurs fruits qui sont déhiscents, oblongs à circulaires ou elliptiques.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des taxons des Bignoniaceae ont 2n = 40 chromosomes, mais Jacaranda a 2n = 36  ce qui suggère que x = 18 est le numéro de base ancestral de la famille donc n=18 chromosomes. Jacaranda pourrait nous aider à comprendre à l'évolution chromosomique et caryotypique de la famille. Des caractéristiques de distributions d'hétérochromatine ont été étudiées chez plusieurs espèces de Jacaranda. Tous avaient 2n = 36, y compris les premiers comptages pour Jacaranda bracteata. De plus la plupart des espèces de Jacaranda ont des feuilles pennées naturellement composées mais il n'en est pas de même pour toutes car il se pourrait que la distribution de l'hétérochromatine influence la forme des feuilles[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des taxons des Bignoniaceae ont 2n = 40 chromosomes, mais Jacaranda a 2n = 36  ce qui suggère que x = 18 est le numéro de base ancestral de la famille donc n=18 chromosomes. Jacaranda pourrait nous aider à comprendre à l'évolution chromosomique et caryotypique de la famille. Des caractéristiques de distributions d'hétérochromatine ont été étudiées chez plusieurs espèces de Jacaranda. Tous avaient 2n = 36, y compris les premiers comptages pour Jacaranda bracteata. De plus la plupart des espèces de Jacaranda ont des feuilles pennées naturellement composées mais il n'en est pas de même pour toutes car il se pourrait que la distribution de l'hétérochromatine influence la forme des feuilles.
 </t>
         </is>
       </c>
@@ -573,14 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’arbre Jacaranda est un bel arbre tropical qui possède des grappes de fleurs parfumées qui sont en forme de trompette de couleur bleu lavande. Les fleurs peuvent apparaître à tout moment d’avril à août. Elles peuvent mesurer jusqu'à 5 cm de long et elles sont regroupées en panicules de 30 cm. Le feuillage de l’arbre est de type fougère, caduque et bien vert. Les feuilles sont bipennées ou pennées. Le fruit des Jacaranda est un fruit déhiscent en forme de cosse d’environ 5 à 7 cm. Il est de couleur marron et n’attire pas la faune car peu voyant et difficilement ouvrable.  On peut classifier les espèces de Jacaranda en deux sections selon leur anatomie : les Monolobos et les Dilobos. Les Monolobos ont un bois contenant des rayons unisériés et homocellulaires alors que les Dilobos ont une position primitive avec des rayons plus larges et hétérocellulaires[5].
-Appareil végétatif
-Les Jacarandas sont des arbres de taille moyenne très variable allant de 1 à 45 mètres de haut mais la majorité mesure entre 7 et 12 mètres. Les troncs sont recouverts d'une écorce gris clair. Le feuillage de l'arbre est de type fougère avec des feuilles disposées en alternance, bipennées composées et caduques. La feuille est de couleur verte et ne change pas à l'automne[6]. Les feuilles peuvent atteindre jusqu'à 50 cm de longueur ce qui fait de cet arbre un excellent arbre d'ombre. Les feuilles peuvent être considérées comme semi-persistantes ou caduques selon le climat dans lequel il est cultivé.
-Appareil reproducteur
-Le Jacaranda possède des fleurs à corolles qui vont du bleu au magenta et qui sont en forme de trompette. Les fleurs sont rassemblées en inflorescences de type thyrsoïde (= grappe de cymes). La fleur présente un calice cupulaire court d’environ 5 à 6 mm, brun et gamosépale. Le staminode est entier avec des anthères fixés au filet par sa base. Les fleurs sont hermaphrodites, zygomorphes et nectarifères. L’ovaire est aplati et allongé et contient en moyenne 243 ovules.
-Les fruits sont des capsules sèches et mesurant 5 à 7 cm. Ils sont déhiscents et contiennent de nombreuses graines légères qui ont une aile membranaire de 1 à 2 cm de diamètre[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’arbre Jacaranda est un bel arbre tropical qui possède des grappes de fleurs parfumées qui sont en forme de trompette de couleur bleu lavande. Les fleurs peuvent apparaître à tout moment d’avril à août. Elles peuvent mesurer jusqu'à 5 cm de long et elles sont regroupées en panicules de 30 cm. Le feuillage de l’arbre est de type fougère, caduque et bien vert. Les feuilles sont bipennées ou pennées. Le fruit des Jacaranda est un fruit déhiscent en forme de cosse d’environ 5 à 7 cm. Il est de couleur marron et n’attire pas la faune car peu voyant et difficilement ouvrable.  On peut classifier les espèces de Jacaranda en deux sections selon leur anatomie : les Monolobos et les Dilobos. Les Monolobos ont un bois contenant des rayons unisériés et homocellulaires alors que les Dilobos ont une position primitive avec des rayons plus larges et hétérocellulaires.
 </t>
         </is>
       </c>
@@ -606,15 +619,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jacaranda est une espèce à croissance rapide et légère mais avec des taux de mortalité élevés. Il ne se régénère avec succès que dans les grands espaces lumineux[8].
-Pollinisation
-La pollinisation du Jacaranda se fait par attraction des pollinisateurs grâce à une sécrétion des trichomes glanduleux. On parle de pollinisation entomogame. Les staminodes (étamines stériles) jouent un rôle dans l’augmentation du contact des pollinisateurs avec les organes reproducteurs. La plupart des espèces de Jacaranda semblent être pollinisées par les abeilles Euglossa et Centris, abeilles solitaires et de taille moyenne compatibles avec le tube corollaire. Il y a alors un contact direct avec les structures reproductrices et la fréquence des visites est élevée.
-Il existe également une dissémination des graines par le vent. Les fruits de Jacaranda sont produits de novembre à mars et la dispersion des graines est concentrée pendant la saison des pluies de février à mai. Les fruits sont impénétrables et il n'existe pas de dispersion par les animaux (zoogamie). Les fruits restent scellés jusqu'à devenir mûrs.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Jacarandas sont des arbres de taille moyenne très variable allant de 1 à 45 mètres de haut mais la majorité mesure entre 7 et 12 mètres. Les troncs sont recouverts d'une écorce gris clair. Le feuillage de l'arbre est de type fougère avec des feuilles disposées en alternance, bipennées composées et caduques. La feuille est de couleur verte et ne change pas à l'automne. Les feuilles peuvent atteindre jusqu'à 50 cm de longueur ce qui fait de cet arbre un excellent arbre d'ombre. Les feuilles peuvent être considérées comme semi-persistantes ou caduques selon le climat dans lequel il est cultivé.
 </t>
         </is>
       </c>
@@ -640,15 +656,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ecologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parasitisme
-Ceroplastes grandis, un insecte hémiptère, est un parasite des branches terminales de Jacaranda mimosifolia où il est très abondant. Ces attaques sont graves et peuvent entraîner la mort de plusieurs arbres[9].
-Bioindicateur
-Les feuilles du Jacaranda mimosifolia piègent les métaux tels que le Plomb, le Cuivre, le Manganèse, l’Antimoine et le Fer. Ce piégeage est rendu possible grâce à la structure large et grande de leurs feuilles qui permettent une couverture plus large. Les feuilles de J. mimosifolia peuvent être utilisées comme bio-moniteurs de polluants atmosphériques[10].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Jacaranda possède des fleurs à corolles qui vont du bleu au magenta et qui sont en forme de trompette. Les fleurs sont rassemblées en inflorescences de type thyrsoïde (= grappe de cymes). La fleur présente un calice cupulaire court d’environ 5 à 6 mm, brun et gamosépale. Le staminode est entier avec des anthères fixés au filet par sa base. Les fleurs sont hermaphrodites, zygomorphes et nectarifères. L’ovaire est aplati et allongé et contient en moyenne 243 ovules.
+Les fruits sont des capsules sèches et mesurant 5 à 7 cm. Ils sont déhiscents et contiennent de nombreuses graines légères qui ont une aile membranaire de 1 à 2 cm de diamètre.
 </t>
         </is>
       </c>
@@ -674,19 +694,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Distribution et habitat</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Jacaranda est natif d’Argentine, du Brésil et de Bolivie mais il a été importé dans de nombreux pays comme par exemple l’Australie, les Etats-Unis et L’Afrique du Sud.
-Les arbres Jacaranda préfèrent les sols bien drainants et modérément sablonneux avec un niveau de pH légèrement acide. Ils tolèrent également les sols argileux. Ils apprécient beaucoup la chaleur et l'humidité mais peuvent être vulnérables à l’échaudage du tronc dans les zones à températures élevées constantes. Ils ont des fortes capacités de régénération dans les grandes lacunes lumineuses.
-Espèce géophyte
-Les Jacaranda ne sont pas tous géophytes mais il existe une espèce fascinante qui pousse sous terre. Le Jacaranda decurrens est un arbre géophyte qui possède de petites branches aériennes saisonnières qui proviennent de systèmes souterrains ligneux. L'arbre souterrain se propage horizontalement de 5 à 50 cm sous la surface et possède des branches secondaires qui se divergent vers le haut et qui émergent de façon saisonnière à intervalles relativement réguliers. Le plus grand J. decurrens avait une couronne circulaire de 22 m de diamètre et occupait 380 m2. Il pousse avec plusieurs espèces sympatriques d’arbres souterrains.
-Espèce menacée
-Certaines espèces de Jacaranda sont menacées, comme J. arborea qui est une espèce endémique cubaine et qui figure sur la liste rouge de l’Union internationale pour la conservation de la nature et des ressources naturelles des espèces menacées (UICN). Bien que cette espèce soit dans un cas critique, on trouve également des espèces dont la population décroît comme J. mimosifolia, J. orinocensis et J. selleana[11].La population de Jacaranda mimosifolia est notamment décroissante car elle est considérée comme envahissante dans des régions du Monde, c'est pourquoi son implantation est limitée.
-Espèce envahissante
-Alors que d’autres espèces de Jacaranda sont en voie de disparition, le Jacaranda mimosifolia est considéré comme une espèce envahissante dans certaines zones d’Afrique du Sud et d’Australie car il concurrence les espèces indigènes. Il peut se développer sous des arbres plantés et ainsi exclure d’autres végétaux. A Pretoria, le phénomène est tellement important que la ville est désormais appelée la ville des Jacarandas et la plupart des gens pensent que les arbres Jacaranda sont indigènes à Pretoria alors qu’ils ont été importés d’Argentine, du Brésil et de Bolivie[12].
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacaranda est une espèce à croissance rapide et légère mais avec des taux de mortalité élevés. Il ne se régénère avec succès que dans les grands espaces lumineux.
 </t>
         </is>
       </c>
@@ -712,12 +727,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Foresterie</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Jacaranda copaia est recommandé dans les projets d’agroforesterie, de reboisement et de récupération des terres dégradées en Amérique du Sud et Centrale en raison de sa croissance rapide dans des environnements très lumineux et il est persistant dans les forêts matures. Il s’agit d’un arbre pionnier que l’on trouve habituellement colonisant les lacunes forestières et les bords de forêt. L’espèce peut également être introduite à l'intérieur de la forêt[13].
+          <t>Pollinisation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pollinisation du Jacaranda se fait par attraction des pollinisateurs grâce à une sécrétion des trichomes glanduleux. On parle de pollinisation entomogame. Les staminodes (étamines stériles) jouent un rôle dans l’augmentation du contact des pollinisateurs avec les organes reproducteurs. La plupart des espèces de Jacaranda semblent être pollinisées par les abeilles Euglossa et Centris, abeilles solitaires et de taille moyenne compatibles avec le tube corollaire. Il y a alors un contact direct avec les structures reproductrices et la fréquence des visites est élevée.
+Il existe également une dissémination des graines par le vent. Les fruits de Jacaranda sont produits de novembre à mars et la dispersion des graines est concentrée pendant la saison des pluies de février à mai. Les fruits sont impénétrables et il n'existe pas de dispersion par les animaux (zoogamie). Les fruits restent scellés jusqu'à devenir mûrs.
 </t>
         </is>
       </c>
@@ -743,17 +765,18 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Utilisations</t>
+          <t>Ecologie</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre d'ornement
-Le Jacaranda a été introduit comme arbre ornemental dans la plupart des régions des tropiques et au Kenya en 1907 à l’arboretum de Nairobi où il est maintenant un arbre ornemental exceptionnel.
-Bois
-Le bois du Jacaranda est brun clair, modérément lourd, texturé fin, et facile à travailler. Ce bois peut également être utilisé comme carburant et servir de bois de chauffage. Il est également utilisé en menuiserie ou encore pour les poteaux et pour la fabrications de petits articles comme des poignées d’outils et des sculptures. Il existe un bois destiné au commerce nommé “jacaranda” mais qui ne vient pas de cet arbre mais de Dalbergia nigra.
-Outils
-Le fruit capsulaire de Jacaranda est utilisé par les Indiens Siona de l’Equateur amazonien comme outil pour façonner la poterie.
+          <t>Parasitisme</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceroplastes grandis, un insecte hémiptère, est un parasite des branches terminales de Jacaranda mimosifolia où il est très abondant. Ces attaques sont graves et peuvent entraîner la mort de plusieurs arbres.
 </t>
         </is>
       </c>
@@ -779,20 +802,18 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Usages médicinaux</t>
+          <t>Ecologie</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les espèces de Jacaranda ont été utilisées pour le traitement des maladies vénériennes, affections de la peau, de l'estomac et des intestins. Le Jacaranone est un constituant chimique présent dans l’arbre Jacaranda et il aurait des propriétés anticancéreuses et anti microbiennes. Il pourrait également agir sur des activités antitumorales. L'arbre Jacaranda arborea a été traditionnellement utilisé en médecine populaire pour le traitement de l'acné et comme acaricide[11]. Les feuilles de la plante peuvent être utilisées pour lutter contre la syphilis et les ulcères (Jacaranda tapisosa). Les constituants et propriétés chimiques diffèrent selon les espèces du genre.
-Les feuilles et l'écorce sont les principales pièces utilisées. Elles sont appliquées directement sur la blessure ou sous forme d'infusion ou de décoction.
-Pharmacologie
-De par sa forte utilisation en ethnobotanique traditionnelle, le genre Jacaranda pourrait être une source potentielle de produits pharmaceutiques à base de plantes. Il est une source naturelle d’antioxydants et possèdent des activités antioxydantes, antidépressives, antimicrobiennes, anti cancéreuses, anti-leishmaniennes, anti-protozoaires, hypotensives et enfin anti-hypertriglycéridémies.
-Phytochimie
-Les produits phytochimiques sont des composés chimiques qui se produisent naturellement dans les plantes et qui peuvent avoir des propriétés préventives. Il y a plusieurs groupes de composés phytochimiques qui ont été signalés à partir de Jacaranda comme les flavonoïdes, les phénylpropanoïdes, les quinones, les stérols, les triterpènes et les acides gras.
-L’extrait de Jacaranda pourrait être un alternatif antimicrobienne et antioxydante naturel en raison de la quantité considérable de composés polyphénoliques. Ces composés servent durablement à l'isolement des ingrédients actifs qui pourraient aider dans l'agriculture, l'aquaculture, l'élevage, la pharmacie et d'autres secteurs industriels. Ils pourraient être la solution pour remédier aux problèmes tels que le stress oxydatif et les abus microbiens.
-Allergie
-Le Jacaranda peut être une source d'allergie pour les personnes qui se trouvent autour. En effet, l'Institut Finlandais de la santé et du travail de 1976 à 1999 a rapporté que les dermatoses allergiques, provoquant diverses symptômes cutanés et muqueux étaient causées par l'émission de poussière de bois des arbres du genre Jacaranda.[14]
+          <t>Bioindicateur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles du Jacaranda mimosifolia piègent les métaux tels que le Plomb, le Cuivre, le Manganèse, l’Antimoine et le Fer. Ce piégeage est rendu possible grâce à la structure large et grande de leurs feuilles qui permettent une couverture plus large. Les feuilles de J. mimosifolia peuvent être utilisées comme bio-moniteurs de polluants atmosphériques.
 </t>
         </is>
       </c>
@@ -818,19 +839,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Divers</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Jacaranda est également appliqué à plusieurs espèces d’arbres du genre Macherium de la famille des pois (Facabeae)[15].
-Amérique du Sud
-Les espèces du genre Jacaranda font partie du folklore[précision nécessaire] et des pratiques ethnobotaniques dans certaines[Lesquelles ?] régions d’Amérique du Sud.
-Australie
-Le genre Jacaranda est naturalisé dans de nombreux pays dont l’Australie pour la beauté de son feuillage et de ses fleurs. En Australie, il est cultivé comme plante ornementale. Chaque année, lorsque les arbres Jacaranda fleurissent, les citoyens de Grafton organisent une fête, le Grafton Jacaranda Festival qui a un esprit carnavalesque.
-Jacaranda city
-Avec environ 50 000 arbres plantés le long de ses rues, parcs et jardins, la ville de Pretoria en Afrique du sud est surnommée la ville des Jacarandas.
-Au printemps austral, la ville entière se teinte de bleu violet. Les nouvelles plantations sont interdites car l'espèce est envahissante.
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Jacaranda est natif d’Argentine, du Brésil et de Bolivie mais il a été importé dans de nombreux pays comme par exemple l’Australie, les Etats-Unis et L’Afrique du Sud.
+Les arbres Jacaranda préfèrent les sols bien drainants et modérément sablonneux avec un niveau de pH légèrement acide. Ils tolèrent également les sols argileux. Ils apprécient beaucoup la chaleur et l'humidité mais peuvent être vulnérables à l’échaudage du tronc dans les zones à températures élevées constantes. Ils ont des fortes capacités de régénération dans les grandes lacunes lumineuses.
 </t>
         </is>
       </c>
@@ -856,12 +873,560 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Espèce géophyte</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Jacaranda ne sont pas tous géophytes mais il existe une espèce fascinante qui pousse sous terre. Le Jacaranda decurrens est un arbre géophyte qui possède de petites branches aériennes saisonnières qui proviennent de systèmes souterrains ligneux. L'arbre souterrain se propage horizontalement de 5 à 50 cm sous la surface et possède des branches secondaires qui se divergent vers le haut et qui émergent de façon saisonnière à intervalles relativement réguliers. Le plus grand J. decurrens avait une couronne circulaire de 22 m de diamètre et occupait 380 m2. Il pousse avec plusieurs espèces sympatriques d’arbres souterrains.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Espèce menacée</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces de Jacaranda sont menacées, comme J. arborea qui est une espèce endémique cubaine et qui figure sur la liste rouge de l’Union internationale pour la conservation de la nature et des ressources naturelles des espèces menacées (UICN). Bien que cette espèce soit dans un cas critique, on trouve également des espèces dont la population décroît comme J. mimosifolia, J. orinocensis et J. selleana.La population de Jacaranda mimosifolia est notamment décroissante car elle est considérée comme envahissante dans des régions du Monde, c'est pourquoi son implantation est limitée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que d’autres espèces de Jacaranda sont en voie de disparition, le Jacaranda mimosifolia est considéré comme une espèce envahissante dans certaines zones d’Afrique du Sud et d’Australie car il concurrence les espèces indigènes. Il peut se développer sous des arbres plantés et ainsi exclure d’autres végétaux. A Pretoria, le phénomène est tellement important que la ville est désormais appelée la ville des Jacarandas et la plupart des gens pensent que les arbres Jacaranda sont indigènes à Pretoria alors qu’ils ont été importés d’Argentine, du Brésil et de Bolivie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Foresterie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Jacaranda copaia est recommandé dans les projets d’agroforesterie, de reboisement et de récupération des terres dégradées en Amérique du Sud et Centrale en raison de sa croissance rapide dans des environnements très lumineux et il est persistant dans les forêts matures. Il s’agit d’un arbre pionnier que l’on trouve habituellement colonisant les lacunes forestières et les bords de forêt. L’espèce peut également être introduite à l'intérieur de la forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Arbre d'ornement</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Jacaranda a été introduit comme arbre ornemental dans la plupart des régions des tropiques et au Kenya en 1907 à l’arboretum de Nairobi où il est maintenant un arbre ornemental exceptionnel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bois</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois du Jacaranda est brun clair, modérément lourd, texturé fin, et facile à travailler. Ce bois peut également être utilisé comme carburant et servir de bois de chauffage. Il est également utilisé en menuiserie ou encore pour les poteaux et pour la fabrications de petits articles comme des poignées d’outils et des sculptures. Il existe un bois destiné au commerce nommé “jacaranda” mais qui ne vient pas de cet arbre mais de Dalbergia nigra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Outils</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit capsulaire de Jacaranda est utilisé par les Indiens Siona de l’Equateur amazonien comme outil pour façonner la poterie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Usages médicinaux</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Jacaranda ont été utilisées pour le traitement des maladies vénériennes, affections de la peau, de l'estomac et des intestins. Le Jacaranone est un constituant chimique présent dans l’arbre Jacaranda et il aurait des propriétés anticancéreuses et anti microbiennes. Il pourrait également agir sur des activités antitumorales. L'arbre Jacaranda arborea a été traditionnellement utilisé en médecine populaire pour le traitement de l'acné et comme acaricide. Les feuilles de la plante peuvent être utilisées pour lutter contre la syphilis et les ulcères (Jacaranda tapisosa). Les constituants et propriétés chimiques diffèrent selon les espèces du genre.
+Les feuilles et l'écorce sont les principales pièces utilisées. Elles sont appliquées directement sur la blessure ou sous forme d'infusion ou de décoction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Usages médicinaux</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De par sa forte utilisation en ethnobotanique traditionnelle, le genre Jacaranda pourrait être une source potentielle de produits pharmaceutiques à base de plantes. Il est une source naturelle d’antioxydants et possèdent des activités antioxydantes, antidépressives, antimicrobiennes, anti cancéreuses, anti-leishmaniennes, anti-protozoaires, hypotensives et enfin anti-hypertriglycéridémies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Usages médicinaux</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Phytochimie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les produits phytochimiques sont des composés chimiques qui se produisent naturellement dans les plantes et qui peuvent avoir des propriétés préventives. Il y a plusieurs groupes de composés phytochimiques qui ont été signalés à partir de Jacaranda comme les flavonoïdes, les phénylpropanoïdes, les quinones, les stérols, les triterpènes et les acides gras.
+L’extrait de Jacaranda pourrait être un alternatif antimicrobienne et antioxydante naturel en raison de la quantité considérable de composés polyphénoliques. Ces composés servent durablement à l'isolement des ingrédients actifs qui pourraient aider dans l'agriculture, l'aquaculture, l'élevage, la pharmacie et d'autres secteurs industriels. Ils pourraient être la solution pour remédier aux problèmes tels que le stress oxydatif et les abus microbiens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Usages médicinaux</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Allergie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Jacaranda peut être une source d'allergie pour les personnes qui se trouvent autour. En effet, l'Institut Finlandais de la santé et du travail de 1976 à 1999 a rapporté que les dermatoses allergiques, provoquant diverses symptômes cutanés et muqueux étaient causées par l'émission de poussière de bois des arbres du genre Jacaranda.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Jacaranda est également appliqué à plusieurs espèces d’arbres du genre Macherium de la famille des pois (Facabeae).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Amérique du Sud</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Jacaranda font partie du folklore[précision nécessaire] et des pratiques ethnobotaniques dans certaines[Lesquelles ?] régions d’Amérique du Sud.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Jacaranda est naturalisé dans de nombreux pays dont l’Australie pour la beauté de son feuillage et de ses fleurs. En Australie, il est cultivé comme plante ornementale. Chaque année, lorsque les arbres Jacaranda fleurissent, les citoyens de Grafton organisent une fête, le Grafton Jacaranda Festival qui a un esprit carnavalesque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Jacaranda city</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec environ 50 000 arbres plantés le long de ses rues, parcs et jardins, la ville de Pretoria en Afrique du sud est surnommée la ville des Jacarandas.
+Au printemps austral, la ville entière se teinte de bleu violet. Les nouvelles plantations sont interdites car l'espèce est envahissante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jacaranda</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (21 mai 2022)[1] :
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (21 mai 2022) :
 Jacaranda acutifolia Humb. &amp; Bonpl.
 Jacaranda acutifolia Kunth
 Jacaranda arborea Urb.
@@ -934,9 +1499,9 @@
 Jacaranda undulata Steud.
 Kordelestris syphilitica Arruda
 Kordelestris undulata Arruda
-Selon Tropicos                                           (21 mai 2022)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 mai 2022) (Attention liste brute contenant possiblement des synonymes) :
 Jacaranda abbottii Urb., 1922
-Jacaranda acutifolia Bonpl., 1805 [1808]
+Jacaranda acutifolia Bonpl., 1805 
 Jacaranda alagoensis Vattimo, 1984
 Jacaranda alba (Aubl.) Spreng., 1825
 Jacaranda amazonensis Vattimo, 1978
@@ -946,10 +1511,10 @@
 Jacaranda atrolilacina C.T. White, 1929
 Jacaranda atropurpurea Rusby, 1927
 Jacaranda bahamensis R. Br., 1822
-Jacaranda bahiensis Vattimo, 1984 [1985]
+Jacaranda bahiensis Vattimo, 1984 
 Jacaranda bracteata Bureau &amp; K. Schum., 1897
 Jacaranda brasiliana (Lam.) Pers., 1807
-Jacaranda bullata A.H. Gentry, 1978 [1979]
+Jacaranda bullata A.H. Gentry, 1978 
 Jacaranda bullosa Huber
 Jacaranda caerulea (L.) J. St.-Hil., 1805
 Jacaranda caerulea (L.) Juss., 1789
@@ -986,7 +1551,7 @@
 Jacaranda filicifolia D. Don ex Seem., 1854
 Jacaranda glabra (A. DC.) Bureau &amp; K. Schum., 1897
 Jacaranda gloxiniiflora Lem., 1856
-Jacaranda goiasensis Vattimo, 1982 [1983]
+Jacaranda goiasensis Vattimo, 1982 
 Jacaranda gomesiana Rizzini, 1976
 Jacaranda grandifoliolata A.H. Gentry, 1985
 Jacaranda gualanday Cortés, 1897
@@ -1012,11 +1577,11 @@
 Jacaranda mimosifolia D. Don, 1822
 Jacaranda montana Morawetz, 1979
 Jacaranda morii A.H. Gentry, 1985
-Jacaranda mutabilis Hassl., 1911 [1910]
+Jacaranda mutabilis Hassl., 1911 
 Jacaranda nitida A. DC., 1845
 Jacaranda obovata Cham., 1832
 Jacaranda obovata Mart. ex A. DC., 1845
-Jacaranda obtusifolia Bonpl., 1808 [1805]
+Jacaranda obtusifolia Bonpl., 1808 
 Jacaranda orbiculata (Jacq.) Spreng., 1825
 Jacaranda orinocensis Sandwith, 1958
 Jacaranda ovalifolia R. Br., 1822
@@ -1052,20 +1617,20 @@
 Jacaranda subalpina Morawetz, 1979
 Jacaranda subrhombea A. DC., 1845
 Jacaranda subvelutina Mart. ex A. DC., 1845
-Jacaranda superba Pittier, 1939 [1940]
+Jacaranda superba Pittier, 1939 
 Jacaranda tomentosa R. Br., 1822
 Jacaranda trianae Kraenzl., 1921
 Jacaranda tuberculosa (Vell.) Steud., 1841
 Jacaranda ulei Bureau &amp; K. Schum., 1897
 Jacaranda undulata Steud., 1840
 Jacaranda variifolia Urb., 1922
-Selon NCBI  (30 sept. 2011)[16] :
+Selon NCBI  (30 sept. 2011) :
 Jacaranda arborea
 Jacaranda copaia
 Jacaranda mimosifolia
 Jacaranda rufa
 Jacaranda sparrei
-Selon ITIS      (30 sept. 2011)[17] :
+Selon ITIS      (30 sept. 2011) :
 Jacaranda mimosifolia D. Don
 On compte 49 espèces :
 Jacaranda acutifolia
@@ -1112,7 +1677,7 @@
 Jacaranda simplicifolia
 Jacaranda sparrei
 Jacaranda subalpina
-Jacaranda ulei[18]
+Jacaranda ulei
 </t>
         </is>
       </c>
